--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_23_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_23_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>568818.0825487885</v>
+        <v>592335.8387251828</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12023739.45502592</v>
+        <v>12099616.04791786</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17470865.98181603</v>
+        <v>17457935.25014308</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5235982.02103917</v>
+        <v>5227567.743303735</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L11" t="n">
-        <v>32.87119109810837</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K12" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899255</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L14" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K15" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679383</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916996</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L17" t="n">
-        <v>32.8711910981084</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601003</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917247</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126157</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K18" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979796</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899257</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856002</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215854</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L20" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K21" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L23" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K24" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L26" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K27" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L32" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K33" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L35" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K36" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L38" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K39" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L44" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K45" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22559,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.25529200088408</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.3588981658848</v>
+        <v>14.43379593695437</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H11" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I11" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S11" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I12" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S12" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I13" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R13" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S13" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T13" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H14" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I14" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S14" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I15" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S15" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I16" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R16" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S16" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T16" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H17" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I17" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S17" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I18" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S18" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I19" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.86903925848996</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R19" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S19" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T19" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H20" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I20" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S20" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I21" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S21" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I22" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J22" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R22" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S22" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T22" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H23" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I23" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S23" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I24" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S24" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I25" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R25" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S25" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T25" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H26" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I26" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S26" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I27" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S27" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I28" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J28" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R28" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S28" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T28" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H29" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I29" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S29" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I30" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S30" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I31" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J31" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R31" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S31" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T31" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H32" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I32" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S32" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I33" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S33" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I34" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R34" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S34" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T34" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H35" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I35" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S35" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I36" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S36" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I37" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R37" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S37" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T37" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H38" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I38" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S38" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I39" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S39" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I40" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R40" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S40" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T40" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H41" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I41" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S41" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I42" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S42" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I43" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R43" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S43" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T43" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H44" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I44" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048567</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S44" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I45" t="n">
-        <v>65.71175959472041</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.4466155766215</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S45" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I46" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356987</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848995</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R46" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S46" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T46" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>921690.1298024699</v>
+        <v>921685.8810566687</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>921770.4018703941</v>
+        <v>921763.6947749946</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>296845.5224704056</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>296845.5224704056</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>296845.5224704056</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>296845.5224704056</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>296845.5224704056</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>296845.5224704056</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>296845.5224704056</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>296845.5224704056</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>296845.5224704056</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>296845.5224704056</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>296845.5224704056</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>296845.5224704056</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512050.0721124831</v>
+        <v>512047.7116981491</v>
       </c>
       <c r="C2" t="n">
-        <v>512094.6677057742</v>
+        <v>512090.9415416634</v>
       </c>
       <c r="D2" t="n">
         <v>512099.8709766525</v>
       </c>
       <c r="E2" t="n">
-        <v>149442.123852395</v>
+        <v>149712.021310451</v>
       </c>
       <c r="F2" t="n">
-        <v>149442.123852395</v>
+        <v>149712.021310451</v>
       </c>
       <c r="G2" t="n">
-        <v>149442.123852395</v>
+        <v>149712.021310451</v>
       </c>
       <c r="H2" t="n">
-        <v>149442.1238523949</v>
+        <v>149712.021310451</v>
       </c>
       <c r="I2" t="n">
-        <v>149442.1238523949</v>
+        <v>149712.021310451</v>
       </c>
       <c r="J2" t="n">
-        <v>149442.1238523949</v>
+        <v>149712.021310451</v>
       </c>
       <c r="K2" t="n">
-        <v>149442.1238523949</v>
+        <v>149712.021310451</v>
       </c>
       <c r="L2" t="n">
-        <v>149442.1238523949</v>
+        <v>149712.021310451</v>
       </c>
       <c r="M2" t="n">
-        <v>149442.1238523949</v>
+        <v>149712.021310451</v>
       </c>
       <c r="N2" t="n">
-        <v>149442.1238523949</v>
+        <v>149712.021310451</v>
       </c>
       <c r="O2" t="n">
-        <v>149442.1238523949</v>
+        <v>149712.021310451</v>
       </c>
       <c r="P2" t="n">
-        <v>149442.1238523949</v>
+        <v>149712.021310451</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11372.629688074</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>203044.1822108271</v>
+        <v>196825.9098199031</v>
       </c>
       <c r="D3" t="n">
-        <v>22280.77012981693</v>
+        <v>38236.46568336456</v>
       </c>
       <c r="E3" t="n">
-        <v>47420.72226727416</v>
+        <v>52530.53686621619</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463502.371121851</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>385783.8405692248</v>
+        <v>392277.5763379417</v>
       </c>
       <c r="D4" t="n">
-        <v>377068.1104903041</v>
+        <v>377068.1104903042</v>
       </c>
       <c r="E4" t="n">
-        <v>27849.69953609438</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="F4" t="n">
-        <v>27849.69953609438</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="G4" t="n">
-        <v>27849.69953609439</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="H4" t="n">
-        <v>27849.69953609438</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="I4" t="n">
-        <v>27849.69953609438</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="J4" t="n">
-        <v>27849.69953609438</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="K4" t="n">
-        <v>27849.69953609438</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="L4" t="n">
-        <v>27849.69953609438</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="M4" t="n">
-        <v>27849.69953609438</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="N4" t="n">
-        <v>27849.69953609438</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="O4" t="n">
-        <v>27849.69953609438</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="P4" t="n">
-        <v>27849.69953609438</v>
+        <v>26395.39817233222</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33884.88516240442</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>38745.80483114667</v>
+        <v>38339.65294307929</v>
       </c>
       <c r="D5" t="n">
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.102563257328</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3290.186140153703</v>
+        <v>10804.15176641788</v>
       </c>
       <c r="C6" t="n">
-        <v>-115479.1599054243</v>
+        <v>-115352.1975592607</v>
       </c>
       <c r="D6" t="n">
-        <v>73438.02899965073</v>
+        <v>57482.33344610308</v>
       </c>
       <c r="E6" t="n">
-        <v>67199.59948576908</v>
+        <v>63675.33105455144</v>
       </c>
       <c r="F6" t="n">
-        <v>114620.3217530432</v>
+        <v>116205.8679207677</v>
       </c>
       <c r="G6" t="n">
-        <v>114620.3217530432</v>
+        <v>116205.8679207676</v>
       </c>
       <c r="H6" t="n">
-        <v>114620.3217530432</v>
+        <v>116205.8679207677</v>
       </c>
       <c r="I6" t="n">
-        <v>114620.3217530432</v>
+        <v>116205.8679207676</v>
       </c>
       <c r="J6" t="n">
-        <v>114620.3217530432</v>
+        <v>116205.8679207676</v>
       </c>
       <c r="K6" t="n">
-        <v>114620.3217530432</v>
+        <v>116205.8679207677</v>
       </c>
       <c r="L6" t="n">
-        <v>114620.3217530432</v>
+        <v>116205.8679207676</v>
       </c>
       <c r="M6" t="n">
-        <v>114620.3217530432</v>
+        <v>116205.8679207676</v>
       </c>
       <c r="N6" t="n">
-        <v>114620.3217530432</v>
+        <v>116205.8679207676</v>
       </c>
       <c r="O6" t="n">
-        <v>114620.3217530432</v>
+        <v>116205.8679207677</v>
       </c>
       <c r="P6" t="n">
-        <v>114620.3217530432</v>
+        <v>116205.8679207676</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992762</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>234.7800381259942</v>
+        <v>216.1492175724446</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
       </c>
       <c r="E3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="G3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="H3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="I3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="O3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="P3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992762</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>222.9779664560666</v>
+        <v>216.1492175724445</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01635439147063</v>
+        <v>44.64717494502023</v>
       </c>
       <c r="E3" t="n">
-        <v>59.02482598057782</v>
+        <v>65.38503947111997</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27394,46 +27396,46 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.9889007429445</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>208.6467463822456</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>177.0190258115284</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K2" t="n">
-        <v>214.0546037115793</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>228.279156979828</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>222.0152160730529</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>220.9472418750055</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>222.1041760324344</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>224.4102714990879</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>217.1821080973806</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R2" t="n">
-        <v>212.6051885295649</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S2" t="n">
-        <v>207.9389049302515</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>222.8881568254978</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3418572666964</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27470,49 +27472,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3181315750904</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>111.9902728985985</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>98.64835865463272</v>
+        <v>99.52238</v>
       </c>
       <c r="J3" t="n">
-        <v>124.4392452907996</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K3" t="n">
-        <v>133.7422231944371</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>133.0424782891217</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>135.7019048619078</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>124.739343706399</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>136.5563672569108</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>129.1268734863556</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.741326030535</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>144.1033706945348</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S3" t="n">
-        <v>171.2116449385346</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.0624069602493</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9397119764932</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27549,49 +27551,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9696969341359</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0379524075512</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>154.8104543848956</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>125.4907540397727</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K4" t="n">
-        <v>126.5406274173932</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L4" t="n">
-        <v>131.7205602141892</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>135.5896671967106</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>124.4287531140874</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>135.4483645121045</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>135.1539915655949</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q4" t="n">
-        <v>149.7228888072868</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R4" t="n">
-        <v>176.3364561889816</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.6457034240009</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.8546554334476</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3178684969824</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27631,46 +27633,46 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.8087073802583</v>
+        <v>330.5757541782243</v>
       </c>
       <c r="I5" t="n">
-        <v>174.0885230584365</v>
+        <v>176.9760193775952</v>
       </c>
       <c r="J5" t="n">
-        <v>100.9387195582597</v>
+        <v>107.2955742555736</v>
       </c>
       <c r="K5" t="n">
-        <v>100.0299464227919</v>
+        <v>109.5572237694796</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318186</v>
+        <v>98.64091687123928</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323863</v>
+        <v>77.7676953375541</v>
       </c>
       <c r="N5" t="n">
-        <v>61.00144891149961</v>
+        <v>74.3656454478664</v>
       </c>
       <c r="O5" t="n">
-        <v>71.0718992657024</v>
+        <v>83.69133109099639</v>
       </c>
       <c r="P5" t="n">
-        <v>95.50771753390021</v>
+        <v>106.2781106359148</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.3816583481039</v>
+        <v>128.4697750236904</v>
       </c>
       <c r="R5" t="n">
-        <v>156.2970892917925</v>
+        <v>161.0018864037399</v>
       </c>
       <c r="S5" t="n">
-        <v>187.5123304152058</v>
+        <v>189.2190633734531</v>
       </c>
       <c r="T5" t="n">
-        <v>218.9641928127885</v>
+        <v>219.2920578056454</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2701457598965</v>
+        <v>251.276137581582</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,49 +27709,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.8385185906377</v>
+        <v>136.8785924310737</v>
       </c>
       <c r="H6" t="n">
-        <v>107.3582211803319</v>
+        <v>107.7452501129632</v>
       </c>
       <c r="I6" t="n">
-        <v>82.13536774255608</v>
+        <v>83.51510303826707</v>
       </c>
       <c r="J6" t="n">
-        <v>79.12633608862856</v>
+        <v>82.91243519753434</v>
       </c>
       <c r="K6" t="n">
-        <v>56.29524403393702</v>
+        <v>62.76629045205057</v>
       </c>
       <c r="L6" t="n">
-        <v>28.90545725697471</v>
+        <v>37.60657774285653</v>
       </c>
       <c r="M6" t="n">
-        <v>14.17891314335149</v>
+        <v>24.33271034503603</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>10.42253800004659</v>
       </c>
       <c r="O6" t="n">
-        <v>22.44423757443683</v>
+        <v>31.97882363640291</v>
       </c>
       <c r="P6" t="n">
-        <v>37.54182911310821</v>
+        <v>45.19417501179163</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.51914927829571</v>
+        <v>80.63453985745144</v>
       </c>
       <c r="R6" t="n">
-        <v>114.3252943440434</v>
+        <v>116.8133877002326</v>
       </c>
       <c r="S6" t="n">
-        <v>162.3030441088983</v>
+        <v>163.0473981187501</v>
       </c>
       <c r="T6" t="n">
-        <v>198.1292300623896</v>
+        <v>198.2907557613397</v>
       </c>
       <c r="U6" t="n">
-        <v>225.908158490674</v>
+        <v>225.9107949275447</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27786,49 +27788,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.5676055192152</v>
+        <v>167.6012020808691</v>
       </c>
       <c r="H7" t="n">
-        <v>158.4629941912556</v>
+        <v>158.7616981666879</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7184689252781</v>
+        <v>143.7288091611985</v>
       </c>
       <c r="J7" t="n">
-        <v>97.06289100487388</v>
+        <v>99.43816791380756</v>
       </c>
       <c r="K7" t="n">
-        <v>79.82491575659759</v>
+        <v>83.72822537421013</v>
       </c>
       <c r="L7" t="n">
-        <v>71.94053294496764</v>
+        <v>76.93542539304551</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>77.82642397052864</v>
       </c>
       <c r="N7" t="n">
-        <v>62.89780050171086</v>
+        <v>68.03899070462725</v>
       </c>
       <c r="O7" t="n">
-        <v>78.61457070130248</v>
+        <v>83.36329197944329</v>
       </c>
       <c r="P7" t="n">
-        <v>86.52286261917671</v>
+        <v>90.5862140395771</v>
       </c>
       <c r="Q7" t="n">
-        <v>116.0532158724207</v>
+        <v>118.8664697760067</v>
       </c>
       <c r="R7" t="n">
-        <v>158.2569640235438</v>
+        <v>159.7675876048201</v>
       </c>
       <c r="S7" t="n">
-        <v>216.6383466748816</v>
+        <v>217.2238431175235</v>
       </c>
       <c r="T7" t="n">
-        <v>226.1366284787861</v>
+        <v>226.2801774240348</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2977687777133</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04744551425096528</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4859013728226984</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.829143188160341</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.026878715157869</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.03524733340123</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.487257990159211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.331017154219815</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.465821721585371</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.994035389252334</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.822724256181627</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.123581777068932</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.980349284567201</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.081164655993873</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2076927386336007</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.003795641140077222</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02538558812022168</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2451713378979305</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8740213453672817</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.398381375867085</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.099215779921938</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.511901490752519</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.432129060110555</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.602368376934323</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.039877187533621</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.847533927974613</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.240448055486544</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.576133269429203</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4715261653032402</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.102321734572297</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001670104481593532</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0212824243228203</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1892200998883479</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6400205423626326</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.504667399623395</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.472630753142213</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.164116067049121</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.336116750894459</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.256791351145767</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.008173939738275</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.574012483552738</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.782112822159071</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9569351881879018</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3708946129713319</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09093399483386855</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001160859508517472</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9438393492502272</v>
+        <v>0.8689415781806812</v>
       </c>
       <c r="H5" t="n">
-        <v>9.666094735508892</v>
+        <v>8.899047937542903</v>
       </c>
       <c r="I5" t="n">
-        <v>36.38736651196942</v>
+        <v>33.49987019281074</v>
       </c>
       <c r="J5" t="n">
-        <v>80.10718496842655</v>
+        <v>73.75033027111266</v>
       </c>
       <c r="K5" t="n">
-        <v>120.0599046221887</v>
+        <v>110.5326272755009</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068054</v>
+        <v>137.125498098748</v>
       </c>
       <c r="M5" t="n">
-        <v>165.7299311340341</v>
+        <v>152.5785378897186</v>
       </c>
       <c r="N5" t="n">
-        <v>168.4116146850913</v>
+        <v>155.0474181487245</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559843</v>
+        <v>146.4068803306903</v>
       </c>
       <c r="P5" t="n">
-        <v>135.7252782213693</v>
+        <v>124.9548851193548</v>
       </c>
       <c r="Q5" t="n">
-        <v>101.9240315263455</v>
+        <v>93.8359148507591</v>
       </c>
       <c r="R5" t="n">
-        <v>59.28844852233964</v>
+        <v>54.58365141039226</v>
       </c>
       <c r="S5" t="n">
-        <v>21.50773917103957</v>
+        <v>19.80100621279229</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342871</v>
+        <v>3.803791758485934</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.06951532625445447</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.4649247321369563</v>
       </c>
       <c r="H6" t="n">
-        <v>4.877223056164522</v>
+        <v>4.490194123533237</v>
       </c>
       <c r="I6" t="n">
-        <v>17.38701225744391</v>
+        <v>16.00727696173293</v>
       </c>
       <c r="J6" t="n">
-        <v>47.71129057803813</v>
+        <v>43.92519146913236</v>
       </c>
       <c r="K6" t="n">
-        <v>81.54619494042197</v>
+        <v>75.07514852230842</v>
       </c>
       <c r="L6" t="n">
-        <v>109.6489225228995</v>
+        <v>100.9478020370177</v>
       </c>
       <c r="M6" t="n">
-        <v>127.9551207786668</v>
+        <v>117.8013235769823</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>120.9191740832867</v>
       </c>
       <c r="O6" t="n">
-        <v>120.1520068700076</v>
+        <v>110.6174208080415</v>
       </c>
       <c r="P6" t="n">
-        <v>96.43257830122204</v>
+        <v>88.78023240253862</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.4626248077258</v>
+        <v>59.34723422857008</v>
       </c>
       <c r="R6" t="n">
-        <v>31.35420961992052</v>
+        <v>28.86611626373139</v>
       </c>
       <c r="S6" t="n">
-        <v>9.380126994939479</v>
+        <v>8.635772985087758</v>
       </c>
       <c r="T6" t="n">
-        <v>2.035498632431968</v>
+        <v>1.873972933481854</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03058715343006293</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.423373839243596</v>
+        <v>0.3897772775896541</v>
       </c>
       <c r="H7" t="n">
-        <v>3.764178316183975</v>
+        <v>3.465474340751655</v>
       </c>
       <c r="I7" t="n">
-        <v>12.73200600198015</v>
+        <v>11.72166576605978</v>
       </c>
       <c r="J7" t="n">
-        <v>29.93253043452224</v>
+        <v>27.55725352558855</v>
       </c>
       <c r="K7" t="n">
-        <v>49.18834241393778</v>
+        <v>45.28503279632526</v>
       </c>
       <c r="L7" t="n">
-        <v>62.94414333627064</v>
+        <v>57.94925088819277</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797568</v>
+        <v>61.09935997707642</v>
       </c>
       <c r="N7" t="n">
-        <v>64.78774396352233</v>
+        <v>59.64655376060593</v>
       </c>
       <c r="O7" t="n">
-        <v>59.84196775054031</v>
+        <v>55.0932464723995</v>
       </c>
       <c r="P7" t="n">
-        <v>51.20514142997091</v>
+        <v>47.14179000957051</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702513</v>
+        <v>32.63853185343913</v>
       </c>
       <c r="R7" t="n">
-        <v>19.03642735362569</v>
+        <v>17.52580377234936</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090667</v>
+        <v>6.792754919448789</v>
       </c>
       <c r="T7" t="n">
-        <v>1.808960949495364</v>
+        <v>1.665412004246704</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02126057877761752</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H11" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K11" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M11" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P11" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I12" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K12" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31856,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S12" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I13" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224573</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R13" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S13" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T13" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H14" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K14" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M14" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P14" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R14" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S14" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T14" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I15" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K15" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32093,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S15" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I16" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J16" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R16" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S16" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T16" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H17" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K17" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M17" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P17" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R17" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S17" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T17" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I18" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K18" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32330,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S18" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I19" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J19" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R19" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S19" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T19" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H20" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K20" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M20" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P20" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R20" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S20" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T20" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I21" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K21" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32567,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S21" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I22" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J22" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R22" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S22" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T22" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H23" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K23" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M23" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P23" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R23" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S23" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T23" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I24" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K24" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32804,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S24" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I25" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J25" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R25" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S25" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T25" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H26" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K26" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M26" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P26" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R26" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S26" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T26" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I27" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K27" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33041,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S27" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I28" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J28" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R28" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S28" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T28" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H29" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K29" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M29" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P29" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R29" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S29" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T29" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I30" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K30" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33278,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S30" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I31" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J31" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R31" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S31" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T31" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H32" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K32" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M32" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P32" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R32" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S32" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T32" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I33" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33515,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S33" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I34" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J34" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R34" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S34" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T34" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H35" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K35" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M35" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P35" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R35" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S35" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T35" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I36" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K36" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33752,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S36" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I37" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J37" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R37" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S37" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T37" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H38" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K38" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M38" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P38" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R38" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S38" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T38" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I39" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K39" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33989,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S39" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I40" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J40" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R40" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S40" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T40" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H41" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K41" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M41" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P41" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R41" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S41" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T41" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I42" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K42" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34226,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S42" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I43" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J43" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R43" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S43" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T43" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H44" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K44" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M44" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P44" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I45" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K45" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34463,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S45" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I46" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R46" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S46" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T46" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_23_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_23_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>592335.8387251828</v>
+        <v>509979.9207656632</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12099616.04791786</v>
+        <v>12069448.91852444</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17457935.25014308</v>
+        <v>17406239.85936392</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5227567.743303735</v>
+        <v>5247654.820596279</v>
       </c>
     </row>
     <row r="11">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2757,19 +2757,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
     </row>
     <row r="31">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
     </row>
     <row r="36">
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3641,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
     </row>
     <row r="41">
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3833,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3942,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
     </row>
   </sheetData>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
     </row>
   </sheetData>
@@ -8695,10 +8695,10 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L11" t="n">
-        <v>28.83625887535973</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09656339947139259</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8853,13 +8853,13 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L13" t="n">
-        <v>47.43596908875769</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M13" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N13" t="n">
-        <v>37.67551094615368</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O13" t="n">
         <v>55.31770395088348</v>
@@ -9640,13 +9640,13 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28984570098882</v>
+        <v>57.66779749620168</v>
       </c>
       <c r="L23" t="n">
-        <v>28.8362588753597</v>
+        <v>33.39854548300258</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09656339947136416</v>
+        <v>4.658850007114239</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9804,16 +9804,16 @@
         <v>47.4359690887577</v>
       </c>
       <c r="M25" t="n">
-        <v>46.72338342663512</v>
+        <v>51.10133522184798</v>
       </c>
       <c r="N25" t="n">
-        <v>37.67551094615366</v>
+        <v>42.23779755379654</v>
       </c>
       <c r="O25" t="n">
-        <v>55.31770395088348</v>
+        <v>59.87999055852636</v>
       </c>
       <c r="P25" t="n">
-        <v>66.5883684560963</v>
+        <v>71.15065506373918</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9883,16 +9883,16 @@
         <v>28.8362588753597</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09656339947136416</v>
+        <v>4.658850007114239</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.161922983629779</v>
+        <v>13.72420959127265</v>
       </c>
       <c r="P26" t="n">
-        <v>42.66898511507466</v>
+        <v>47.04693691028752</v>
       </c>
       <c r="Q26" t="n">
         <v>80.70197082457096</v>
@@ -10041,16 +10041,16 @@
         <v>47.4359690887577</v>
       </c>
       <c r="M28" t="n">
-        <v>46.72338342663512</v>
+        <v>51.10133522184798</v>
       </c>
       <c r="N28" t="n">
-        <v>37.67551094615366</v>
+        <v>42.23779755379654</v>
       </c>
       <c r="O28" t="n">
-        <v>55.31770395088348</v>
+        <v>59.87999055852636</v>
       </c>
       <c r="P28" t="n">
-        <v>66.5883684560963</v>
+        <v>71.15065506373918</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>9.161922983629779</v>
+        <v>13.53987477884264</v>
       </c>
       <c r="P29" t="n">
-        <v>42.66898511507466</v>
+        <v>47.23127172271754</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.70197082457096</v>
+        <v>85.26425743221384</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10275,16 +10275,16 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L31" t="n">
-        <v>47.4359690887577</v>
+        <v>51.81392088397056</v>
       </c>
       <c r="M31" t="n">
-        <v>46.72338342663512</v>
+        <v>51.285670034278</v>
       </c>
       <c r="N31" t="n">
-        <v>37.67551094615366</v>
+        <v>42.23779755379654</v>
       </c>
       <c r="O31" t="n">
-        <v>55.31770395088348</v>
+        <v>59.87999055852636</v>
       </c>
       <c r="P31" t="n">
         <v>66.5883684560963</v>
@@ -10354,7 +10354,7 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L32" t="n">
-        <v>28.8362588753597</v>
+        <v>33.21421067057256</v>
       </c>
       <c r="M32" t="n">
         <v>0.09656339947136416</v>
@@ -10366,10 +10366,10 @@
         <v>9.161922983629779</v>
       </c>
       <c r="P32" t="n">
-        <v>42.66898511507466</v>
+        <v>47.23127172271754</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.70197082457096</v>
+        <v>85.26425743221384</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10509,19 +10509,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>60.67557455063191</v>
+        <v>65.05352634584477</v>
       </c>
       <c r="L34" t="n">
         <v>47.4359690887577</v>
       </c>
       <c r="M34" t="n">
-        <v>46.72338342663512</v>
+        <v>51.285670034278</v>
       </c>
       <c r="N34" t="n">
-        <v>37.67551094615366</v>
+        <v>42.23779755379654</v>
       </c>
       <c r="O34" t="n">
-        <v>55.31770395088348</v>
+        <v>59.87999055852636</v>
       </c>
       <c r="P34" t="n">
         <v>66.5883684560963</v>
@@ -10591,7 +10591,7 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L35" t="n">
-        <v>28.8362588753597</v>
+        <v>33.21421067057256</v>
       </c>
       <c r="M35" t="n">
         <v>0.09656339947136416</v>
@@ -10603,10 +10603,10 @@
         <v>9.161922983629779</v>
       </c>
       <c r="P35" t="n">
-        <v>42.66898511507466</v>
+        <v>47.23127172271754</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.70197082457096</v>
+        <v>85.26425743221384</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10752,16 +10752,16 @@
         <v>47.4359690887577</v>
       </c>
       <c r="M37" t="n">
-        <v>46.72338342663512</v>
+        <v>51.285670034278</v>
       </c>
       <c r="N37" t="n">
-        <v>37.67551094615366</v>
+        <v>42.23779755379654</v>
       </c>
       <c r="O37" t="n">
-        <v>55.31770395088348</v>
+        <v>59.69565574609634</v>
       </c>
       <c r="P37" t="n">
-        <v>66.5883684560963</v>
+        <v>71.15065506373918</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10828,16 +10828,16 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L38" t="n">
-        <v>28.8362588753597</v>
+        <v>33.39854548300258</v>
       </c>
       <c r="M38" t="n">
-        <v>0.09656339947136416</v>
+        <v>4.658850007114239</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.161922983629779</v>
+        <v>13.53987477884264</v>
       </c>
       <c r="P38" t="n">
         <v>42.66898511507466</v>
@@ -10983,10 +10983,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>60.67557455063191</v>
+        <v>65.23786115827478</v>
       </c>
       <c r="L40" t="n">
-        <v>47.4359690887577</v>
+        <v>51.99825569640058</v>
       </c>
       <c r="M40" t="n">
         <v>46.72338342663512</v>
@@ -10995,10 +10995,10 @@
         <v>37.67551094615366</v>
       </c>
       <c r="O40" t="n">
-        <v>55.31770395088348</v>
+        <v>59.87999055852636</v>
       </c>
       <c r="P40" t="n">
-        <v>66.5883684560963</v>
+        <v>70.96632025130917</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11068,19 +11068,19 @@
         <v>28.8362588753597</v>
       </c>
       <c r="M41" t="n">
-        <v>0.09656339947136416</v>
+        <v>4.658850007114239</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.161922983629779</v>
+        <v>13.72420959127265</v>
       </c>
       <c r="P41" t="n">
         <v>42.66898511507466</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.70197082457096</v>
+        <v>85.07992261978383</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11220,13 +11220,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>60.67557455063191</v>
+        <v>65.23786115827478</v>
       </c>
       <c r="L43" t="n">
-        <v>47.4359690887577</v>
+        <v>51.99825569640058</v>
       </c>
       <c r="M43" t="n">
-        <v>46.72338342663512</v>
+        <v>51.10133522184798</v>
       </c>
       <c r="N43" t="n">
         <v>37.67551094615366</v>
@@ -11235,7 +11235,7 @@
         <v>55.31770395088348</v>
       </c>
       <c r="P43" t="n">
-        <v>66.5883684560963</v>
+        <v>71.15065506373918</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11302,7 +11302,7 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L44" t="n">
-        <v>28.8362588753597</v>
+        <v>33.21421067057256</v>
       </c>
       <c r="M44" t="n">
         <v>0.09656339947136416</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.161922983629779</v>
+        <v>13.72420959127265</v>
       </c>
       <c r="P44" t="n">
         <v>42.66898511507466</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.70197082457096</v>
+        <v>85.26425743221384</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11457,10 +11457,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>60.67557455063191</v>
+        <v>65.23786115827478</v>
       </c>
       <c r="L46" t="n">
-        <v>47.4359690887577</v>
+        <v>51.99825569640058</v>
       </c>
       <c r="M46" t="n">
         <v>46.72338342663512</v>
@@ -11469,10 +11469,10 @@
         <v>37.67551094615366</v>
       </c>
       <c r="O46" t="n">
-        <v>55.31770395088348</v>
+        <v>59.69565574609634</v>
       </c>
       <c r="P46" t="n">
-        <v>66.5883684560963</v>
+        <v>71.15065506373918</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.43379593695437</v>
+        <v>14.45464554646933</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>378.7153796194687</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24259,7 +24259,7 @@
         <v>179.1392278518137</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3557120022016</v>
+        <v>212.7934253945587</v>
       </c>
       <c r="U23" t="n">
         <v>251.2407503367447</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>365.1688140708262</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>381.6756520484107</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>161.9708970422245</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24299,7 +24299,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6419193661031</v>
+        <v>132.6234573220913</v>
       </c>
       <c r="H24" t="n">
         <v>105.4594865644317</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>56.59722706556381</v>
+        <v>52.03494045792093</v>
       </c>
       <c r="S24" t="n">
-        <v>158.6512997408977</v>
+        <v>154.0890131332548</v>
       </c>
       <c r="T24" t="n">
         <v>197.336797223147</v>
@@ -24414,10 +24414,10 @@
         <v>150.8459592031442</v>
       </c>
       <c r="S25" t="n">
-        <v>213.7659454939867</v>
+        <v>209.2036588863439</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4323882309924</v>
+        <v>221.4139261869805</v>
       </c>
       <c r="U25" t="n">
         <v>286.286945936951</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>221.1473687813943</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>214.0223667444519</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>360.7106051633647</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.9914553764875</v>
+        <v>409.4291687688446</v>
       </c>
       <c r="H26" t="n">
-        <v>326.0456339133427</v>
+        <v>321.4833473056998</v>
       </c>
       <c r="I26" t="n">
         <v>159.9226849201952</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>67.4992912993288</v>
+        <v>63.48082925531696</v>
       </c>
       <c r="S26" t="n">
         <v>179.1392278518137</v>
@@ -24533,10 +24533,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>141.050750349372</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6419193661031</v>
+        <v>132.0796327584602</v>
       </c>
       <c r="H27" t="n">
         <v>105.4594865644317</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>56.59722706556381</v>
+        <v>52.03494045792093</v>
       </c>
       <c r="S27" t="n">
         <v>158.6512997408977</v>
       </c>
       <c r="T27" t="n">
-        <v>197.336797223147</v>
+        <v>192.7745106155041</v>
       </c>
       <c r="U27" t="n">
         <v>225.8952243311651</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>36.90864702141808</v>
+        <v>32.34636041377521</v>
       </c>
       <c r="R28" t="n">
-        <v>150.8459592031442</v>
+        <v>146.2836725955014</v>
       </c>
       <c r="S28" t="n">
-        <v>213.7659454939867</v>
+        <v>209.2036588863439</v>
       </c>
       <c r="T28" t="n">
         <v>225.4323882309924</v>
       </c>
       <c r="U28" t="n">
-        <v>286.286945936951</v>
+        <v>282.2684838929392</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24730,7 +24730,7 @@
         <v>67.4992912993288</v>
       </c>
       <c r="S29" t="n">
-        <v>179.1392278518137</v>
+        <v>174.5769412441708</v>
       </c>
       <c r="T29" t="n">
         <v>217.3557120022016</v>
@@ -24739,13 +24739,13 @@
         <v>251.2407503367447</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>323.733796426123</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>344.6786821097701</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>365.1688140708262</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24767,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>153.0827938477581</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>56.59722706556381</v>
+        <v>52.03494045792093</v>
       </c>
       <c r="S30" t="n">
-        <v>158.6512997408977</v>
+        <v>154.0890131332548</v>
       </c>
       <c r="T30" t="n">
         <v>197.336797223147</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>201.6642337332925</v>
       </c>
     </row>
     <row r="31">
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>36.90864702141808</v>
+        <v>32.34636041377521</v>
       </c>
       <c r="R31" t="n">
         <v>150.8459592031442</v>
@@ -24894,13 +24894,13 @@
         <v>225.4323882309924</v>
       </c>
       <c r="U31" t="n">
-        <v>286.286945936951</v>
+        <v>282.2684838929392</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>247.5753567161851</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>281.9607117289481</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>377.9119080282499</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>402.3137591340686</v>
       </c>
       <c r="G32" t="n">
-        <v>413.9914553764875</v>
+        <v>409.4291687688446</v>
       </c>
       <c r="H32" t="n">
-        <v>326.0456339133427</v>
+        <v>321.4833473056998</v>
       </c>
       <c r="I32" t="n">
         <v>159.9226849201952</v>
@@ -25049,16 +25049,16 @@
         <v>158.6512997408977</v>
       </c>
       <c r="T33" t="n">
-        <v>197.336797223147</v>
+        <v>193.3183351791351</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8952243311651</v>
+        <v>221.3329377235222</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>228.2383005417824</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1326965532767</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>144.0531864105695</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>141.8716760389263</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>141.4025859789194</v>
       </c>
       <c r="G34" t="n">
         <v>167.4027833335613</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>281.9607117289481</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25213,16 +25213,16 @@
         <v>251.2407503367447</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>323.733796426123</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>344.6786821097701</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>365.1688140708262</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>381.6756520484107</v>
       </c>
     </row>
     <row r="36">
@@ -25238,16 +25238,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>143.4266035206269</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>153.0827938477581</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>140.506925785741</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6419193661031</v>
+        <v>132.0796327584602</v>
       </c>
       <c r="H36" t="n">
         <v>105.4594865644317</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>141.4025859789194</v>
       </c>
       <c r="G37" t="n">
         <v>167.4027833335613</v>
@@ -25359,13 +25359,13 @@
         <v>36.90864702141808</v>
       </c>
       <c r="R37" t="n">
-        <v>150.8459592031442</v>
+        <v>146.2836725955014</v>
       </c>
       <c r="S37" t="n">
-        <v>213.7659454939867</v>
+        <v>209.2036588863439</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4323882309924</v>
+        <v>220.8701016233495</v>
       </c>
       <c r="U37" t="n">
         <v>286.286945936951</v>
@@ -25447,16 +25447,16 @@
         <v>217.3557120022016</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2407503367447</v>
+        <v>246.6784637291018</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>323.189971862492</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>344.6786821097701</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>365.7126386344572</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25529,16 +25529,16 @@
         <v>225.8952243311651</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>228.7821251054134</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1326965532767</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>201.2106985958346</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>201.1204091696615</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>175.2696935742944</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,10 +25596,10 @@
         <v>36.90864702141808</v>
       </c>
       <c r="R40" t="n">
-        <v>150.8459592031442</v>
+        <v>146.2836725955014</v>
       </c>
       <c r="S40" t="n">
-        <v>213.7659454939867</v>
+        <v>209.2036588863439</v>
       </c>
       <c r="T40" t="n">
         <v>225.4323882309924</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>214.5661913080829</v>
       </c>
     </row>
     <row r="41">
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>67.4992912993288</v>
+        <v>62.93700469168593</v>
       </c>
       <c r="S41" t="n">
-        <v>179.1392278518137</v>
+        <v>175.1207658078018</v>
       </c>
       <c r="T41" t="n">
         <v>217.3557120022016</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2407503367447</v>
+        <v>246.6784637291018</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>365.1688140708262</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25721,10 +25721,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6419193661031</v>
+        <v>132.0796327584602</v>
       </c>
       <c r="H42" t="n">
-        <v>105.4594865644317</v>
+        <v>101.4410245204199</v>
       </c>
       <c r="I42" t="n">
         <v>65.24074378433592</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>56.59722706556381</v>
+        <v>52.03494045792093</v>
       </c>
       <c r="S42" t="n">
-        <v>158.6512997408977</v>
+        <v>154.0890131332548</v>
       </c>
       <c r="T42" t="n">
         <v>197.336797223147</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.90864702141808</v>
+        <v>32.34636041377521</v>
       </c>
       <c r="R43" t="n">
-        <v>150.8459592031442</v>
+        <v>146.2836725955014</v>
       </c>
       <c r="S43" t="n">
-        <v>213.7659454939867</v>
+        <v>209.2036588863439</v>
       </c>
       <c r="T43" t="n">
         <v>225.4323882309924</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>221.6911933450253</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>67.4992912993288</v>
+        <v>62.93700469168593</v>
       </c>
       <c r="S44" t="n">
-        <v>179.1392278518137</v>
+        <v>174.5769412441708</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3557120022016</v>
+        <v>212.7934253945587</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2407503367447</v>
+        <v>247.2222882927329</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -26000,19 +26000,19 @@
         <v>197.336797223147</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8952243311651</v>
+        <v>221.8767622871533</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>228.2383005417824</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>201.2106985958346</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>201.1204091696615</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4027833335613</v>
+        <v>163.3843212895495</v>
       </c>
       <c r="H46" t="n">
         <v>156.9975751224423</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>281.9607117289481</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>221.1473687813943</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>214.0223667444519</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>921763.6947749946</v>
+        <v>921761.8276924627</v>
       </c>
     </row>
     <row r="4">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>295877.0365311443</v>
+        <v>299652.4406178501</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>295877.0365311443</v>
+        <v>299652.4406178502</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>295877.0365311443</v>
+        <v>299652.4406178502</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>295877.0365311443</v>
+        <v>299652.4406178502</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>295877.0365311443</v>
+        <v>299652.4406178503</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>295877.0365311443</v>
+        <v>299652.4406178502</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>295877.0365311443</v>
+        <v>299652.4406178503</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>295877.0365311443</v>
+        <v>299652.44061785</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>512047.7116981491</v>
       </c>
       <c r="C2" t="n">
-        <v>512090.9415416634</v>
+        <v>512089.9042735898</v>
       </c>
       <c r="D2" t="n">
-        <v>512099.8709766525</v>
+        <v>512099.8709766524</v>
       </c>
       <c r="E2" t="n">
-        <v>149712.021310451</v>
+        <v>149712.0213104511</v>
       </c>
       <c r="F2" t="n">
-        <v>149712.021310451</v>
+        <v>149712.0213104511</v>
       </c>
       <c r="G2" t="n">
-        <v>149712.021310451</v>
+        <v>149712.0213104511</v>
       </c>
       <c r="H2" t="n">
-        <v>149712.021310451</v>
+        <v>149712.0213104511</v>
       </c>
       <c r="I2" t="n">
-        <v>149712.021310451</v>
+        <v>151327.6319308094</v>
       </c>
       <c r="J2" t="n">
-        <v>149712.021310451</v>
+        <v>151327.6319308094</v>
       </c>
       <c r="K2" t="n">
-        <v>149712.021310451</v>
+        <v>151327.6319308094</v>
       </c>
       <c r="L2" t="n">
-        <v>149712.021310451</v>
+        <v>151327.6319308094</v>
       </c>
       <c r="M2" t="n">
-        <v>149712.021310451</v>
+        <v>151327.6319308094</v>
       </c>
       <c r="N2" t="n">
-        <v>149712.021310451</v>
+        <v>151327.6319308094</v>
       </c>
       <c r="O2" t="n">
-        <v>149712.021310451</v>
+        <v>151327.6319308094</v>
       </c>
       <c r="P2" t="n">
-        <v>149712.021310451</v>
+        <v>151327.6319308093</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>196825.9098199031</v>
+        <v>192103.2179091721</v>
       </c>
       <c r="D3" t="n">
-        <v>38236.46568336456</v>
+        <v>42678.12018229695</v>
       </c>
       <c r="E3" t="n">
         <v>52530.53686621619</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1213.207816991001</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>392277.5763379417</v>
+        <v>394085.2650466667</v>
       </c>
       <c r="D4" t="n">
         <v>377068.1104903042</v>
@@ -26438,28 +26438,28 @@
         <v>26395.39817233222</v>
       </c>
       <c r="I4" t="n">
-        <v>26395.39817233222</v>
+        <v>27266.65933613747</v>
       </c>
       <c r="J4" t="n">
-        <v>26395.39817233222</v>
+        <v>27266.65933613746</v>
       </c>
       <c r="K4" t="n">
-        <v>26395.39817233222</v>
+        <v>27266.65933613746</v>
       </c>
       <c r="L4" t="n">
-        <v>26395.39817233222</v>
+        <v>27266.65933613746</v>
       </c>
       <c r="M4" t="n">
-        <v>26395.39817233222</v>
+        <v>27266.65933613746</v>
       </c>
       <c r="N4" t="n">
-        <v>26395.39817233222</v>
+        <v>27266.65933613746</v>
       </c>
       <c r="O4" t="n">
-        <v>26395.39817233222</v>
+        <v>27266.65933613747</v>
       </c>
       <c r="P4" t="n">
-        <v>26395.39817233222</v>
+        <v>27266.65933613746</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>38339.65294307929</v>
+        <v>38226.59072308204</v>
       </c>
       <c r="D5" t="n">
         <v>39312.96135688073</v>
@@ -26490,28 +26490,28 @@
         <v>7110.755217351149</v>
       </c>
       <c r="I5" t="n">
-        <v>7110.755217351149</v>
+        <v>7388.142243095836</v>
       </c>
       <c r="J5" t="n">
-        <v>7110.755217351149</v>
+        <v>7388.142243095836</v>
       </c>
       <c r="K5" t="n">
-        <v>7110.755217351149</v>
+        <v>7388.142243095836</v>
       </c>
       <c r="L5" t="n">
-        <v>7110.755217351149</v>
+        <v>7388.142243095836</v>
       </c>
       <c r="M5" t="n">
-        <v>7110.755217351149</v>
+        <v>7388.142243095836</v>
       </c>
       <c r="N5" t="n">
-        <v>7110.755217351149</v>
+        <v>7388.142243095836</v>
       </c>
       <c r="O5" t="n">
-        <v>7110.755217351149</v>
+        <v>7388.142243095836</v>
       </c>
       <c r="P5" t="n">
-        <v>7110.755217351149</v>
+        <v>7388.142243095836</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10804.15176641788</v>
+        <v>10760.01598773675</v>
       </c>
       <c r="C6" t="n">
-        <v>-115352.1975592607</v>
+        <v>-112367.6174809945</v>
       </c>
       <c r="D6" t="n">
-        <v>57482.33344610308</v>
+        <v>52998.62953962956</v>
       </c>
       <c r="E6" t="n">
-        <v>63675.33105455144</v>
+        <v>49137.76766036246</v>
       </c>
       <c r="F6" t="n">
-        <v>116205.8679207677</v>
+        <v>101668.3045265786</v>
       </c>
       <c r="G6" t="n">
-        <v>116205.8679207676</v>
+        <v>101668.3045265786</v>
       </c>
       <c r="H6" t="n">
-        <v>116205.8679207677</v>
+        <v>101668.3045265786</v>
       </c>
       <c r="I6" t="n">
-        <v>116205.8679207676</v>
+        <v>100986.6835652104</v>
       </c>
       <c r="J6" t="n">
-        <v>116205.8679207676</v>
+        <v>102199.8913822013</v>
       </c>
       <c r="K6" t="n">
-        <v>116205.8679207677</v>
+        <v>102199.8913822014</v>
       </c>
       <c r="L6" t="n">
-        <v>116205.8679207676</v>
+        <v>102199.8913822014</v>
       </c>
       <c r="M6" t="n">
-        <v>116205.8679207676</v>
+        <v>102199.8913822014</v>
       </c>
       <c r="N6" t="n">
-        <v>116205.8679207676</v>
+        <v>102199.8913822013</v>
       </c>
       <c r="O6" t="n">
-        <v>116205.8679207677</v>
+        <v>102199.8913822013</v>
       </c>
       <c r="P6" t="n">
-        <v>116205.8679207676</v>
+        <v>102199.8913822013</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>216.1492175724446</v>
+        <v>210.9628772055982</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
     </row>
   </sheetData>
@@ -26962,10 +26962,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>216.1492175724445</v>
+        <v>210.9628772055982</v>
       </c>
       <c r="D3" t="n">
-        <v>44.64717494502023</v>
+        <v>49.83351531186663</v>
       </c>
       <c r="E3" t="n">
         <v>65.38503947111997</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27633,46 +27633,46 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>330.5757541782243</v>
+        <v>330.7892802416693</v>
       </c>
       <c r="I5" t="n">
-        <v>176.9760193775952</v>
+        <v>177.7798239484207</v>
       </c>
       <c r="J5" t="n">
-        <v>107.2955742555736</v>
+        <v>109.065158801144</v>
       </c>
       <c r="K5" t="n">
-        <v>109.5572237694796</v>
+        <v>112.2093722858183</v>
       </c>
       <c r="L5" t="n">
-        <v>98.64091687123928</v>
+        <v>101.9311416247714</v>
       </c>
       <c r="M5" t="n">
-        <v>77.7676953375541</v>
+        <v>81.42870433429789</v>
       </c>
       <c r="N5" t="n">
-        <v>74.3656454478664</v>
+        <v>78.08589339764458</v>
       </c>
       <c r="O5" t="n">
-        <v>83.69133109099639</v>
+        <v>87.20425573616015</v>
       </c>
       <c r="P5" t="n">
-        <v>106.2781106359148</v>
+        <v>109.276310546178</v>
       </c>
       <c r="Q5" t="n">
-        <v>128.4697750236904</v>
+        <v>130.7212982931991</v>
       </c>
       <c r="R5" t="n">
-        <v>161.0018864037399</v>
+        <v>162.311580687434</v>
       </c>
       <c r="S5" t="n">
-        <v>189.2190633734531</v>
+        <v>189.6941738502752</v>
       </c>
       <c r="T5" t="n">
-        <v>219.2920578056454</v>
+        <v>219.3833269712972</v>
       </c>
       <c r="U5" t="n">
-        <v>251.276137581582</v>
+        <v>251.2778055503432</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27709,49 +27709,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.8785924310737</v>
+        <v>136.8897479556363</v>
       </c>
       <c r="H6" t="n">
-        <v>107.7452501129632</v>
+        <v>107.8529889949236</v>
       </c>
       <c r="I6" t="n">
-        <v>83.51510303826707</v>
+        <v>83.89918579184956</v>
       </c>
       <c r="J6" t="n">
-        <v>82.91243519753434</v>
+        <v>83.96638763000828</v>
       </c>
       <c r="K6" t="n">
-        <v>62.76629045205057</v>
+        <v>64.56766303022211</v>
       </c>
       <c r="L6" t="n">
-        <v>37.60657774285653</v>
+        <v>40.02874547739172</v>
       </c>
       <c r="M6" t="n">
-        <v>24.33271034503603</v>
+        <v>27.15926584496731</v>
       </c>
       <c r="N6" t="n">
-        <v>10.42253800004659</v>
+        <v>13.32390401338266</v>
       </c>
       <c r="O6" t="n">
-        <v>31.97882363640291</v>
+        <v>34.63300671074552</v>
       </c>
       <c r="P6" t="n">
-        <v>45.19417501179163</v>
+        <v>47.32439092586482</v>
       </c>
       <c r="Q6" t="n">
-        <v>80.63453985745144</v>
+        <v>82.05853278232594</v>
       </c>
       <c r="R6" t="n">
-        <v>116.8133877002326</v>
+        <v>117.5060087779031</v>
       </c>
       <c r="S6" t="n">
-        <v>163.0473981187501</v>
+        <v>163.2546070947274</v>
       </c>
       <c r="T6" t="n">
-        <v>198.2907557613397</v>
+        <v>198.3357203537655</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9107949275447</v>
+        <v>225.9115288436344</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27788,49 +27788,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.6012020808691</v>
+        <v>167.6105544979241</v>
       </c>
       <c r="H7" t="n">
-        <v>158.7616981666879</v>
+        <v>158.8448496565039</v>
       </c>
       <c r="I7" t="n">
-        <v>143.7288091611985</v>
+        <v>144.0100618486334</v>
       </c>
       <c r="J7" t="n">
-        <v>99.43816791380756</v>
+        <v>100.0993837995939</v>
       </c>
       <c r="K7" t="n">
-        <v>83.72822537421013</v>
+        <v>84.81480619205105</v>
       </c>
       <c r="L7" t="n">
-        <v>76.93542539304551</v>
+        <v>78.32587474319971</v>
       </c>
       <c r="M7" t="n">
-        <v>77.82642397052864</v>
+        <v>79.29245785488163</v>
       </c>
       <c r="N7" t="n">
-        <v>68.03899070462725</v>
+        <v>69.47016557995718</v>
       </c>
       <c r="O7" t="n">
-        <v>83.36329197944329</v>
+        <v>84.68521361917652</v>
       </c>
       <c r="P7" t="n">
-        <v>90.5862140395771</v>
+        <v>91.71734637138897</v>
       </c>
       <c r="Q7" t="n">
-        <v>118.8664697760067</v>
+        <v>119.6496071714005</v>
       </c>
       <c r="R7" t="n">
-        <v>159.7675876048201</v>
+        <v>160.1881062844008</v>
       </c>
       <c r="S7" t="n">
-        <v>217.2238431175235</v>
+        <v>217.3868302401996</v>
       </c>
       <c r="T7" t="n">
-        <v>226.2801774240348</v>
+        <v>226.3201377514515</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2977687777133</v>
+        <v>286.2982789095526</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8689415781806812</v>
+        <v>0.8480919686657208</v>
       </c>
       <c r="H5" t="n">
-        <v>8.899047937542903</v>
+        <v>8.685521874097816</v>
       </c>
       <c r="I5" t="n">
-        <v>33.49987019281074</v>
+        <v>32.69606562198523</v>
       </c>
       <c r="J5" t="n">
-        <v>73.75033027111266</v>
+        <v>71.98074572554229</v>
       </c>
       <c r="K5" t="n">
-        <v>110.5326272755009</v>
+        <v>107.8804787591623</v>
       </c>
       <c r="L5" t="n">
-        <v>137.125498098748</v>
+        <v>133.8352733452159</v>
       </c>
       <c r="M5" t="n">
-        <v>152.5785378897186</v>
+        <v>148.9175288929748</v>
       </c>
       <c r="N5" t="n">
-        <v>155.0474181487245</v>
+        <v>151.3271701989463</v>
       </c>
       <c r="O5" t="n">
-        <v>146.4068803306903</v>
+        <v>142.8939556855266</v>
       </c>
       <c r="P5" t="n">
-        <v>124.9548851193548</v>
+        <v>121.9566852090916</v>
       </c>
       <c r="Q5" t="n">
-        <v>93.8359148507591</v>
+        <v>91.58439158125042</v>
       </c>
       <c r="R5" t="n">
-        <v>54.58365141039226</v>
+        <v>53.27395712669813</v>
       </c>
       <c r="S5" t="n">
-        <v>19.80100621279229</v>
+        <v>19.32589573597013</v>
       </c>
       <c r="T5" t="n">
-        <v>3.803791758485934</v>
+        <v>3.712522592834195</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06951532625445447</v>
+        <v>0.06784735749325765</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4649247321369563</v>
+        <v>0.4537692075743056</v>
       </c>
       <c r="H6" t="n">
-        <v>4.490194123533237</v>
+        <v>4.3824552415729</v>
       </c>
       <c r="I6" t="n">
-        <v>16.00727696173293</v>
+        <v>15.62319420815044</v>
       </c>
       <c r="J6" t="n">
-        <v>43.92519146913236</v>
+        <v>42.87123903665842</v>
       </c>
       <c r="K6" t="n">
-        <v>75.07514852230842</v>
+        <v>73.27377594413689</v>
       </c>
       <c r="L6" t="n">
-        <v>100.9478020370177</v>
+        <v>98.52563430248246</v>
       </c>
       <c r="M6" t="n">
-        <v>117.8013235769823</v>
+        <v>114.974768077051</v>
       </c>
       <c r="N6" t="n">
-        <v>120.9191740832867</v>
+        <v>118.0178080699506</v>
       </c>
       <c r="O6" t="n">
-        <v>110.6174208080415</v>
+        <v>107.9632377336989</v>
       </c>
       <c r="P6" t="n">
-        <v>88.78023240253862</v>
+        <v>86.65001648846543</v>
       </c>
       <c r="Q6" t="n">
-        <v>59.34723422857008</v>
+        <v>57.92324130369558</v>
       </c>
       <c r="R6" t="n">
-        <v>28.86611626373139</v>
+        <v>28.17349518606084</v>
       </c>
       <c r="S6" t="n">
-        <v>8.635772985087758</v>
+        <v>8.428564009110451</v>
       </c>
       <c r="T6" t="n">
-        <v>1.873972933481854</v>
+        <v>1.829008341056082</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03058715343006293</v>
+        <v>0.02985323734041485</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3897772775896541</v>
+        <v>0.3804248605346852</v>
       </c>
       <c r="H7" t="n">
-        <v>3.465474340751655</v>
+        <v>3.382322850935659</v>
       </c>
       <c r="I7" t="n">
-        <v>11.72166576605978</v>
+        <v>11.4404130786249</v>
       </c>
       <c r="J7" t="n">
-        <v>27.55725352558855</v>
+        <v>26.89603763980224</v>
       </c>
       <c r="K7" t="n">
-        <v>45.28503279632526</v>
+        <v>44.19845197848433</v>
       </c>
       <c r="L7" t="n">
-        <v>57.94925088819277</v>
+        <v>56.55880153803858</v>
       </c>
       <c r="M7" t="n">
-        <v>61.09935997707642</v>
+        <v>59.63332609272343</v>
       </c>
       <c r="N7" t="n">
-        <v>59.64655376060593</v>
+        <v>58.21537888527601</v>
       </c>
       <c r="O7" t="n">
-        <v>55.0932464723995</v>
+        <v>53.77132483266626</v>
       </c>
       <c r="P7" t="n">
-        <v>47.14179000957051</v>
+        <v>46.01065767775864</v>
       </c>
       <c r="Q7" t="n">
-        <v>32.63853185343913</v>
+        <v>31.85539445804533</v>
       </c>
       <c r="R7" t="n">
-        <v>17.52580377234936</v>
+        <v>17.10528509276866</v>
       </c>
       <c r="S7" t="n">
-        <v>6.792754919448789</v>
+        <v>6.629767796772649</v>
       </c>
       <c r="T7" t="n">
-        <v>1.665412004246704</v>
+        <v>1.625451676830018</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02126057877761752</v>
+        <v>0.02075044693825558</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31770,7 +31770,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M11" t="n">
-        <v>230.2496698278013</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
@@ -31919,19 +31919,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J13" t="n">
-        <v>41.58545896024956</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K13" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L13" t="n">
-        <v>87.4487071924806</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M13" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N13" t="n">
-        <v>90.01003351907951</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O13" t="n">
         <v>83.13883450095931</v>
@@ -32721,7 +32721,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>233.9753502042338</v>
       </c>
       <c r="O23" t="n">
         <v>220.9362884380569</v>
@@ -32794,16 +32794,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>143.1166663875171</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>146.6963205296612</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>135.9039986909762</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>146.9741962396573</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32958,7 +32958,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>233.9753502042338</v>
       </c>
       <c r="O26" t="n">
         <v>220.9362884380569</v>
@@ -33031,16 +33031,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>142.932331575087</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>146.6963205296612</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>135.9039986909762</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>147.1585310520873</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33195,7 +33195,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>233.9753502042338</v>
       </c>
       <c r="O29" t="n">
         <v>220.9362884380569</v>
@@ -33268,16 +33268,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>142.932331575087</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>146.6963205296612</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>135.9039986909762</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>147.1585310520873</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33432,7 +33432,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>233.9753502042338</v>
       </c>
       <c r="O32" t="n">
         <v>220.9362884380569</v>
@@ -33505,16 +33505,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>143.1166663875171</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>146.6963205296612</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>135.9039986909762</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>146.9741962396573</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33669,7 +33669,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>233.9753502042338</v>
       </c>
       <c r="O35" t="n">
         <v>220.9362884380569</v>
@@ -33742,16 +33742,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>142.932331575087</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>146.6963205296612</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>135.9039986909762</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>147.1585310520873</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33906,7 +33906,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>233.9753502042338</v>
       </c>
       <c r="O38" t="n">
         <v>220.9362884380569</v>
@@ -33979,16 +33979,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>143.1166663875171</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>146.6963205296612</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>135.9039986909762</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>146.9741962396573</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34143,7 +34143,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>233.9753502042338</v>
       </c>
       <c r="O41" t="n">
         <v>220.9362884380569</v>
@@ -34216,16 +34216,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>143.1166663875171</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>146.6963205296612</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>135.9039986909762</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>146.9741962396573</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34380,7 +34380,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>233.9753502042338</v>
       </c>
       <c r="O44" t="n">
         <v>220.9362884380569</v>
@@ -34453,16 +34453,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>142.932331575087</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>146.6963205296612</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>135.9039986909762</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>147.1585310520873</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -36360,16 +36360,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36524,16 +36524,16 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36603,16 +36603,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36761,16 +36761,16 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36843,16 +36843,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37229,19 +37229,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37311,22 +37311,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37472,16 +37472,16 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37715,10 +37715,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37788,19 +37788,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37955,7 +37955,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,22 +38022,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38189,10 +38189,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_23_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_23_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509979.9207656632</v>
+        <v>583670.8038121761</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12069448.91852444</v>
+        <v>12099616.04791786</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17406239.85936392</v>
+        <v>17457935.25014308</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5247654.820596279</v>
+        <v>5227567.743303735</v>
       </c>
     </row>
     <row r="11">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2757,19 +2757,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3641,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3833,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3942,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>13.91497415331077</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.91497415331077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>13.91497415331077</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>13.91497415331077</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>13.91497415331077</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>13.91497415331077</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.91497415331077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>13.91497415331077</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>13.91497415331077</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9640,13 +9640,13 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K23" t="n">
-        <v>57.66779749620168</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L23" t="n">
-        <v>33.39854548300258</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M23" t="n">
-        <v>4.658850007114239</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9804,16 +9804,16 @@
         <v>47.4359690887577</v>
       </c>
       <c r="M25" t="n">
-        <v>51.10133522184798</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N25" t="n">
-        <v>42.23779755379654</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O25" t="n">
-        <v>59.87999055852636</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P25" t="n">
-        <v>71.15065506373918</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9883,16 +9883,16 @@
         <v>28.8362588753597</v>
       </c>
       <c r="M26" t="n">
-        <v>4.658850007114239</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.72420959127265</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P26" t="n">
-        <v>47.04693691028752</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q26" t="n">
         <v>80.70197082457096</v>
@@ -10041,16 +10041,16 @@
         <v>47.4359690887577</v>
       </c>
       <c r="M28" t="n">
-        <v>51.10133522184798</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N28" t="n">
-        <v>42.23779755379654</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O28" t="n">
-        <v>59.87999055852636</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P28" t="n">
-        <v>71.15065506373918</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.53987477884264</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P29" t="n">
-        <v>47.23127172271754</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q29" t="n">
-        <v>85.26425743221384</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10275,16 +10275,16 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L31" t="n">
-        <v>51.81392088397056</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M31" t="n">
-        <v>51.285670034278</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N31" t="n">
-        <v>42.23779755379654</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O31" t="n">
-        <v>59.87999055852636</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P31" t="n">
         <v>66.5883684560963</v>
@@ -10354,7 +10354,7 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L32" t="n">
-        <v>33.21421067057256</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M32" t="n">
         <v>0.09656339947136416</v>
@@ -10366,10 +10366,10 @@
         <v>9.161922983629779</v>
       </c>
       <c r="P32" t="n">
-        <v>47.23127172271754</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q32" t="n">
-        <v>85.26425743221384</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10509,19 +10509,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>65.05352634584477</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L34" t="n">
         <v>47.4359690887577</v>
       </c>
       <c r="M34" t="n">
-        <v>51.285670034278</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N34" t="n">
-        <v>42.23779755379654</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O34" t="n">
-        <v>59.87999055852636</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P34" t="n">
         <v>66.5883684560963</v>
@@ -10591,7 +10591,7 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L35" t="n">
-        <v>33.21421067057256</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M35" t="n">
         <v>0.09656339947136416</v>
@@ -10603,10 +10603,10 @@
         <v>9.161922983629779</v>
       </c>
       <c r="P35" t="n">
-        <v>47.23127172271754</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q35" t="n">
-        <v>85.26425743221384</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10752,16 +10752,16 @@
         <v>47.4359690887577</v>
       </c>
       <c r="M37" t="n">
-        <v>51.285670034278</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N37" t="n">
-        <v>42.23779755379654</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O37" t="n">
-        <v>59.69565574609634</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P37" t="n">
-        <v>71.15065506373918</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10828,16 +10828,16 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L38" t="n">
-        <v>33.39854548300258</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M38" t="n">
-        <v>4.658850007114239</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.53987477884264</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P38" t="n">
         <v>42.66898511507466</v>
@@ -10983,10 +10983,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>65.23786115827478</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L40" t="n">
-        <v>51.99825569640058</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M40" t="n">
         <v>46.72338342663512</v>
@@ -10995,10 +10995,10 @@
         <v>37.67551094615366</v>
       </c>
       <c r="O40" t="n">
-        <v>59.87999055852636</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P40" t="n">
-        <v>70.96632025130917</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11068,19 +11068,19 @@
         <v>28.8362588753597</v>
       </c>
       <c r="M41" t="n">
-        <v>4.658850007114239</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.72420959127265</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P41" t="n">
         <v>42.66898511507466</v>
       </c>
       <c r="Q41" t="n">
-        <v>85.07992261978383</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11220,13 +11220,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>65.23786115827478</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L43" t="n">
-        <v>51.99825569640058</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M43" t="n">
-        <v>51.10133522184798</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N43" t="n">
         <v>37.67551094615366</v>
@@ -11235,7 +11235,7 @@
         <v>55.31770395088348</v>
       </c>
       <c r="P43" t="n">
-        <v>71.15065506373918</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11302,7 +11302,7 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L44" t="n">
-        <v>33.21421067057256</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M44" t="n">
         <v>0.09656339947136416</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.72420959127265</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P44" t="n">
         <v>42.66898511507466</v>
       </c>
       <c r="Q44" t="n">
-        <v>85.26425743221384</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11457,10 +11457,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>65.23786115827478</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L46" t="n">
-        <v>51.99825569640058</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M46" t="n">
         <v>46.72338342663512</v>
@@ -11469,10 +11469,10 @@
         <v>37.67551094615366</v>
       </c>
       <c r="O46" t="n">
-        <v>59.69565574609634</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P46" t="n">
-        <v>71.15065506373918</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.45464554646933</v>
+        <v>14.43379593695437</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.25430980652214</v>
+        <v>14.25430980652213</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>378.7153796194687</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24259,7 +24259,7 @@
         <v>179.1392278518137</v>
       </c>
       <c r="T23" t="n">
-        <v>212.7934253945587</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U23" t="n">
         <v>251.2407503367447</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>365.1688140708262</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>381.6756520484107</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>161.9708970422245</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24299,7 +24299,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6234573220913</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H24" t="n">
         <v>105.4594865644317</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>52.03494045792093</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S24" t="n">
-        <v>154.0890131332548</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T24" t="n">
         <v>197.336797223147</v>
@@ -24414,10 +24414,10 @@
         <v>150.8459592031442</v>
       </c>
       <c r="S25" t="n">
-        <v>209.2036588863439</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T25" t="n">
-        <v>221.4139261869805</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U25" t="n">
         <v>286.286945936951</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>221.1473687813943</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>214.0223667444519</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>360.7106051633647</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.4291687688446</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H26" t="n">
-        <v>321.4833473056998</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I26" t="n">
         <v>159.9226849201952</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>63.48082925531696</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S26" t="n">
         <v>179.1392278518137</v>
@@ -24533,10 +24533,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>141.050750349372</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>132.0796327584602</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H27" t="n">
         <v>105.4594865644317</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>52.03494045792093</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S27" t="n">
         <v>158.6512997408977</v>
       </c>
       <c r="T27" t="n">
-        <v>192.7745106155041</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U27" t="n">
         <v>225.8952243311651</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.34636041377521</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R28" t="n">
-        <v>146.2836725955014</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S28" t="n">
-        <v>209.2036588863439</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T28" t="n">
         <v>225.4323882309924</v>
       </c>
       <c r="U28" t="n">
-        <v>282.2684838929392</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24730,7 +24730,7 @@
         <v>67.4992912993288</v>
       </c>
       <c r="S29" t="n">
-        <v>174.5769412441708</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T29" t="n">
         <v>217.3557120022016</v>
@@ -24739,13 +24739,13 @@
         <v>251.2407503367447</v>
       </c>
       <c r="V29" t="n">
-        <v>323.733796426123</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>344.6786821097701</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>365.1688140708262</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24767,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>153.0827938477581</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>52.03494045792093</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S30" t="n">
-        <v>154.0890131332548</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T30" t="n">
         <v>197.336797223147</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>201.6642337332925</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.34636041377521</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R31" t="n">
         <v>150.8459592031442</v>
@@ -24894,13 +24894,13 @@
         <v>225.4323882309924</v>
       </c>
       <c r="U31" t="n">
-        <v>282.2684838929392</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V31" t="n">
-        <v>247.5753567161851</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>281.9607117289481</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>377.9119080282499</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>402.3137591340686</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.4291687688446</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H32" t="n">
-        <v>321.4833473056998</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I32" t="n">
         <v>159.9226849201952</v>
@@ -25049,16 +25049,16 @@
         <v>158.6512997408977</v>
       </c>
       <c r="T33" t="n">
-        <v>193.3183351791351</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U33" t="n">
-        <v>221.3329377235222</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V33" t="n">
-        <v>228.2383005417824</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>247.1326965532767</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>144.0531864105695</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>141.8716760389263</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>141.4025859789194</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.4027833335613</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>281.9607117289481</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25213,16 +25213,16 @@
         <v>251.2407503367447</v>
       </c>
       <c r="V35" t="n">
-        <v>323.733796426123</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>344.6786821097701</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>365.1688140708262</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>381.6756520484107</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25238,16 +25238,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>143.4266035206269</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>153.0827938477581</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>140.506925785741</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>132.0796327584602</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H36" t="n">
         <v>105.4594865644317</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>141.4025859789194</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.4027833335613</v>
@@ -25359,13 +25359,13 @@
         <v>36.90864702141808</v>
       </c>
       <c r="R37" t="n">
-        <v>146.2836725955014</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S37" t="n">
-        <v>209.2036588863439</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8701016233495</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U37" t="n">
         <v>286.286945936951</v>
@@ -25447,16 +25447,16 @@
         <v>217.3557120022016</v>
       </c>
       <c r="U38" t="n">
-        <v>246.6784637291018</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V38" t="n">
-        <v>323.189971862492</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>344.6786821097701</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>365.7126386344572</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25529,16 +25529,16 @@
         <v>225.8952243311651</v>
       </c>
       <c r="V39" t="n">
-        <v>228.7821251054134</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>247.1326965532767</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>201.2106985958346</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>201.1204091696615</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.2696935742944</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,10 +25596,10 @@
         <v>36.90864702141808</v>
       </c>
       <c r="R40" t="n">
-        <v>146.2836725955014</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S40" t="n">
-        <v>209.2036588863439</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T40" t="n">
         <v>225.4323882309924</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.5661913080829</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>62.93700469168593</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S41" t="n">
-        <v>175.1207658078018</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T41" t="n">
         <v>217.3557120022016</v>
       </c>
       <c r="U41" t="n">
-        <v>246.6784637291018</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>365.1688140708262</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25721,10 +25721,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>132.0796327584602</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H42" t="n">
-        <v>101.4410245204199</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I42" t="n">
         <v>65.24074378433592</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.03494045792093</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S42" t="n">
-        <v>154.0890131332548</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T42" t="n">
         <v>197.336797223147</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.34636041377521</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R43" t="n">
-        <v>146.2836725955014</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S43" t="n">
-        <v>209.2036588863439</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T43" t="n">
         <v>225.4323882309924</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>221.6911933450253</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>62.93700469168593</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S44" t="n">
-        <v>174.5769412441708</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T44" t="n">
-        <v>212.7934253945587</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U44" t="n">
-        <v>247.2222882927329</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -26000,19 +26000,19 @@
         <v>197.336797223147</v>
       </c>
       <c r="U45" t="n">
-        <v>221.8767622871533</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V45" t="n">
-        <v>228.2383005417824</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>201.2106985958346</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>201.1204091696615</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>163.3843212895495</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H46" t="n">
         <v>156.9975751224423</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>281.9607117289481</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>221.1473687813943</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>214.0223667444519</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>921761.8276924627</v>
+        <v>921763.6947749946</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>921779.7677579748</v>
+        <v>921779.767757975</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>299652.4406178501</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>299652.4406178502</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>299652.4406178502</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>299652.4406178502</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>299652.4406178503</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>299652.4406178502</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>299652.4406178503</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>299652.44061785</v>
+        <v>295877.0365311443</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.7116981491</v>
+        <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
-        <v>512089.9042735898</v>
+        <v>512090.9415416634</v>
       </c>
       <c r="D2" t="n">
         <v>512099.8709766524</v>
       </c>
       <c r="E2" t="n">
-        <v>149712.0213104511</v>
+        <v>149712.021310451</v>
       </c>
       <c r="F2" t="n">
-        <v>149712.0213104511</v>
+        <v>149712.021310451</v>
       </c>
       <c r="G2" t="n">
         <v>149712.0213104511</v>
@@ -26334,28 +26334,28 @@
         <v>149712.0213104511</v>
       </c>
       <c r="I2" t="n">
-        <v>151327.6319308094</v>
+        <v>149712.0213104511</v>
       </c>
       <c r="J2" t="n">
-        <v>151327.6319308094</v>
+        <v>149712.021310451</v>
       </c>
       <c r="K2" t="n">
-        <v>151327.6319308094</v>
+        <v>149712.021310451</v>
       </c>
       <c r="L2" t="n">
-        <v>151327.6319308094</v>
+        <v>149712.021310451</v>
       </c>
       <c r="M2" t="n">
-        <v>151327.6319308094</v>
+        <v>149712.021310451</v>
       </c>
       <c r="N2" t="n">
-        <v>151327.6319308094</v>
+        <v>149712.0213104511</v>
       </c>
       <c r="O2" t="n">
-        <v>151327.6319308094</v>
+        <v>149712.0213104511</v>
       </c>
       <c r="P2" t="n">
-        <v>151327.6319308093</v>
+        <v>149712.0213104511</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>192103.2179091721</v>
+        <v>196825.9098199029</v>
       </c>
       <c r="D3" t="n">
-        <v>42678.12018229695</v>
+        <v>38236.46568336487</v>
       </c>
       <c r="E3" t="n">
         <v>52530.53686621619</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1213.207816991001</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>394085.2650466667</v>
+        <v>392277.5763379419</v>
       </c>
       <c r="D4" t="n">
         <v>377068.1104903042</v>
@@ -26438,28 +26438,28 @@
         <v>26395.39817233222</v>
       </c>
       <c r="I4" t="n">
-        <v>27266.65933613747</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="J4" t="n">
-        <v>27266.65933613746</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="K4" t="n">
-        <v>27266.65933613746</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="L4" t="n">
-        <v>27266.65933613746</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="M4" t="n">
-        <v>27266.65933613746</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="N4" t="n">
-        <v>27266.65933613746</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="O4" t="n">
-        <v>27266.65933613747</v>
+        <v>26395.39817233222</v>
       </c>
       <c r="P4" t="n">
-        <v>27266.65933613746</v>
+        <v>26395.39817233222</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>38226.59072308204</v>
+        <v>38339.65294307928</v>
       </c>
       <c r="D5" t="n">
         <v>39312.96135688073</v>
@@ -26490,28 +26490,28 @@
         <v>7110.755217351149</v>
       </c>
       <c r="I5" t="n">
-        <v>7388.142243095836</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="J5" t="n">
-        <v>7388.142243095836</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="K5" t="n">
-        <v>7388.142243095836</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="L5" t="n">
-        <v>7388.142243095836</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="M5" t="n">
-        <v>7388.142243095836</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="N5" t="n">
-        <v>7388.142243095836</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="O5" t="n">
-        <v>7388.142243095836</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="P5" t="n">
-        <v>7388.142243095836</v>
+        <v>7110.755217351149</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10760.01598773675</v>
+        <v>10799.73818854971</v>
       </c>
       <c r="C6" t="n">
-        <v>-112367.6174809945</v>
+        <v>-115356.4382177547</v>
       </c>
       <c r="D6" t="n">
-        <v>52998.62953962956</v>
+        <v>57478.12850534852</v>
       </c>
       <c r="E6" t="n">
-        <v>49137.76766036246</v>
+        <v>62221.57471513256</v>
       </c>
       <c r="F6" t="n">
-        <v>101668.3045265786</v>
+        <v>114752.1115813488</v>
       </c>
       <c r="G6" t="n">
-        <v>101668.3045265786</v>
+        <v>114752.1115813488</v>
       </c>
       <c r="H6" t="n">
-        <v>101668.3045265786</v>
+        <v>114752.1115813488</v>
       </c>
       <c r="I6" t="n">
-        <v>100986.6835652104</v>
+        <v>114752.1115813488</v>
       </c>
       <c r="J6" t="n">
-        <v>102199.8913822013</v>
+        <v>114752.1115813488</v>
       </c>
       <c r="K6" t="n">
-        <v>102199.8913822014</v>
+        <v>114752.1115813488</v>
       </c>
       <c r="L6" t="n">
-        <v>102199.8913822014</v>
+        <v>114752.1115813488</v>
       </c>
       <c r="M6" t="n">
-        <v>102199.8913822014</v>
+        <v>114752.1115813488</v>
       </c>
       <c r="N6" t="n">
-        <v>102199.8913822013</v>
+        <v>114752.1115813488</v>
       </c>
       <c r="O6" t="n">
-        <v>102199.8913822013</v>
+        <v>114752.1115813488</v>
       </c>
       <c r="P6" t="n">
-        <v>102199.8913822013</v>
+        <v>114752.1115813488</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>210.9628772055982</v>
+        <v>216.1492175724442</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26962,10 +26962,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>210.9628772055982</v>
+        <v>216.1492175724442</v>
       </c>
       <c r="D3" t="n">
-        <v>49.83351531186663</v>
+        <v>44.6471749450206</v>
       </c>
       <c r="E3" t="n">
         <v>65.38503947111997</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27633,46 +27633,46 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>330.7892802416693</v>
+        <v>330.5757541782243</v>
       </c>
       <c r="I5" t="n">
-        <v>177.7798239484207</v>
+        <v>176.9760193775952</v>
       </c>
       <c r="J5" t="n">
-        <v>109.065158801144</v>
+        <v>107.2955742555738</v>
       </c>
       <c r="K5" t="n">
-        <v>112.2093722858183</v>
+        <v>109.5572237694798</v>
       </c>
       <c r="L5" t="n">
-        <v>101.9311416247714</v>
+        <v>98.64091687123951</v>
       </c>
       <c r="M5" t="n">
-        <v>81.42870433429789</v>
+        <v>77.76769533755436</v>
       </c>
       <c r="N5" t="n">
-        <v>78.08589339764458</v>
+        <v>74.36564544786665</v>
       </c>
       <c r="O5" t="n">
-        <v>87.20425573616015</v>
+        <v>83.69133109099661</v>
       </c>
       <c r="P5" t="n">
-        <v>109.276310546178</v>
+        <v>106.278110635915</v>
       </c>
       <c r="Q5" t="n">
-        <v>130.7212982931991</v>
+        <v>128.4697750236905</v>
       </c>
       <c r="R5" t="n">
-        <v>162.311580687434</v>
+        <v>161.0018864037399</v>
       </c>
       <c r="S5" t="n">
-        <v>189.6941738502752</v>
+        <v>189.2190633734531</v>
       </c>
       <c r="T5" t="n">
-        <v>219.3833269712972</v>
+        <v>219.2920578056454</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2778055503432</v>
+        <v>251.276137581582</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27709,49 +27709,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.8897479556363</v>
+        <v>136.8785924310737</v>
       </c>
       <c r="H6" t="n">
-        <v>107.8529889949236</v>
+        <v>107.7452501129632</v>
       </c>
       <c r="I6" t="n">
-        <v>83.89918579184956</v>
+        <v>83.5151030382671</v>
       </c>
       <c r="J6" t="n">
-        <v>83.96638763000828</v>
+        <v>82.91243519753442</v>
       </c>
       <c r="K6" t="n">
-        <v>64.56766303022211</v>
+        <v>62.7662904520507</v>
       </c>
       <c r="L6" t="n">
-        <v>40.02874547739172</v>
+        <v>37.6065777428567</v>
       </c>
       <c r="M6" t="n">
-        <v>27.15926584496731</v>
+        <v>24.33271034503623</v>
       </c>
       <c r="N6" t="n">
-        <v>13.32390401338266</v>
+        <v>10.42253800004679</v>
       </c>
       <c r="O6" t="n">
-        <v>34.63300671074552</v>
+        <v>31.97882363640309</v>
       </c>
       <c r="P6" t="n">
-        <v>47.32439092586482</v>
+        <v>45.19417501179177</v>
       </c>
       <c r="Q6" t="n">
-        <v>82.05853278232594</v>
+        <v>80.63453985745154</v>
       </c>
       <c r="R6" t="n">
-        <v>117.5060087779031</v>
+        <v>116.8133877002326</v>
       </c>
       <c r="S6" t="n">
-        <v>163.2546070947274</v>
+        <v>163.0473981187501</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3357203537655</v>
+        <v>198.2907557613398</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9115288436344</v>
+        <v>225.9107949275447</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27788,49 +27788,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.6105544979241</v>
+        <v>167.6012020808691</v>
       </c>
       <c r="H7" t="n">
-        <v>158.8448496565039</v>
+        <v>158.7616981666879</v>
       </c>
       <c r="I7" t="n">
-        <v>144.0100618486334</v>
+        <v>143.7288091611985</v>
       </c>
       <c r="J7" t="n">
-        <v>100.0993837995939</v>
+        <v>99.4381679138076</v>
       </c>
       <c r="K7" t="n">
-        <v>84.81480619205105</v>
+        <v>83.7282253742102</v>
       </c>
       <c r="L7" t="n">
-        <v>78.32587474319971</v>
+        <v>76.93542539304562</v>
       </c>
       <c r="M7" t="n">
-        <v>79.29245785488163</v>
+        <v>77.82642397052874</v>
       </c>
       <c r="N7" t="n">
-        <v>69.47016557995718</v>
+        <v>68.03899070462737</v>
       </c>
       <c r="O7" t="n">
-        <v>84.68521361917652</v>
+        <v>83.36329197944337</v>
       </c>
       <c r="P7" t="n">
-        <v>91.71734637138897</v>
+        <v>90.58621403957719</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.6496071714005</v>
+        <v>118.8664697760068</v>
       </c>
       <c r="R7" t="n">
-        <v>160.1881062844008</v>
+        <v>159.7675876048202</v>
       </c>
       <c r="S7" t="n">
-        <v>217.3868302401996</v>
+        <v>217.2238431175235</v>
       </c>
       <c r="T7" t="n">
-        <v>226.3201377514515</v>
+        <v>226.2801774240348</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2982789095526</v>
+        <v>286.2977687777133</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27876,7 +27876,7 @@
         <v>170.0563803341062</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280011</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K8" t="n">
         <v>86.72591490550931</v>
@@ -27885,7 +27885,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729363</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N8" t="n">
         <v>42.33948647951536</v>
@@ -27900,7 +27900,7 @@
         <v>109.0872921559756</v>
       </c>
       <c r="R8" t="n">
-        <v>149.7272407629755</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S8" t="n">
         <v>185.1290231762283</v>
@@ -27955,7 +27955,7 @@
         <v>80.20868489375378</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913167</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K9" t="n">
         <v>47.25897875440141</v>
@@ -28049,10 +28049,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>71.98338581476828</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615825</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q10" t="n">
         <v>112.1247463593087</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8480919686657208</v>
+        <v>0.8689415781806796</v>
       </c>
       <c r="H5" t="n">
-        <v>8.685521874097816</v>
+        <v>8.899047937542887</v>
       </c>
       <c r="I5" t="n">
-        <v>32.69606562198523</v>
+        <v>33.49987019281068</v>
       </c>
       <c r="J5" t="n">
-        <v>71.98074572554229</v>
+        <v>73.75033027111253</v>
       </c>
       <c r="K5" t="n">
-        <v>107.8804787591623</v>
+        <v>110.5326272755007</v>
       </c>
       <c r="L5" t="n">
-        <v>133.8352733452159</v>
+        <v>137.1254980987477</v>
       </c>
       <c r="M5" t="n">
-        <v>148.9175288929748</v>
+        <v>152.5785378897184</v>
       </c>
       <c r="N5" t="n">
-        <v>151.3271701989463</v>
+        <v>155.0474181487243</v>
       </c>
       <c r="O5" t="n">
-        <v>142.8939556855266</v>
+        <v>146.4068803306901</v>
       </c>
       <c r="P5" t="n">
-        <v>121.9566852090916</v>
+        <v>124.9548851193546</v>
       </c>
       <c r="Q5" t="n">
-        <v>91.58439158125042</v>
+        <v>93.83591485075894</v>
       </c>
       <c r="R5" t="n">
-        <v>53.27395712669813</v>
+        <v>54.58365141039216</v>
       </c>
       <c r="S5" t="n">
-        <v>19.32589573597013</v>
+        <v>19.80100621279226</v>
       </c>
       <c r="T5" t="n">
-        <v>3.712522592834195</v>
+        <v>3.803791758485927</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06784735749325765</v>
+        <v>0.06951532625445436</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4537692075743056</v>
+        <v>0.4649247321369555</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3824552415729</v>
+        <v>4.490194123533229</v>
       </c>
       <c r="I6" t="n">
-        <v>15.62319420815044</v>
+        <v>16.0072769617329</v>
       </c>
       <c r="J6" t="n">
-        <v>42.87123903665842</v>
+        <v>43.92519146913228</v>
       </c>
       <c r="K6" t="n">
-        <v>73.27377594413689</v>
+        <v>75.0751485223083</v>
       </c>
       <c r="L6" t="n">
-        <v>98.52563430248246</v>
+        <v>100.9478020370175</v>
       </c>
       <c r="M6" t="n">
-        <v>114.974768077051</v>
+        <v>117.8013235769821</v>
       </c>
       <c r="N6" t="n">
-        <v>118.0178080699506</v>
+        <v>120.9191740832865</v>
       </c>
       <c r="O6" t="n">
-        <v>107.9632377336989</v>
+        <v>110.6174208080413</v>
       </c>
       <c r="P6" t="n">
-        <v>86.65001648846543</v>
+        <v>88.78023240253847</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.92324130369558</v>
+        <v>59.34723422856997</v>
       </c>
       <c r="R6" t="n">
-        <v>28.17349518606084</v>
+        <v>28.86611626373134</v>
       </c>
       <c r="S6" t="n">
-        <v>8.428564009110451</v>
+        <v>8.635772985087742</v>
       </c>
       <c r="T6" t="n">
-        <v>1.829008341056082</v>
+        <v>1.873972933481851</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02985323734041485</v>
+        <v>0.03058715343006288</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3804248605346852</v>
+        <v>0.3897772775896535</v>
       </c>
       <c r="H7" t="n">
-        <v>3.382322850935659</v>
+        <v>3.465474340751649</v>
       </c>
       <c r="I7" t="n">
-        <v>11.4404130786249</v>
+        <v>11.72166576605976</v>
       </c>
       <c r="J7" t="n">
-        <v>26.89603763980224</v>
+        <v>27.5572535255885</v>
       </c>
       <c r="K7" t="n">
-        <v>44.19845197848433</v>
+        <v>45.28503279632518</v>
       </c>
       <c r="L7" t="n">
-        <v>56.55880153803858</v>
+        <v>57.94925088819267</v>
       </c>
       <c r="M7" t="n">
-        <v>59.63332609272343</v>
+        <v>61.09935997707631</v>
       </c>
       <c r="N7" t="n">
-        <v>58.21537888527601</v>
+        <v>59.64655376060583</v>
       </c>
       <c r="O7" t="n">
-        <v>53.77132483266626</v>
+        <v>55.09324647239941</v>
       </c>
       <c r="P7" t="n">
-        <v>46.01065767775864</v>
+        <v>47.14179000957044</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.85539445804533</v>
+        <v>32.63853185343908</v>
       </c>
       <c r="R7" t="n">
-        <v>17.10528509276866</v>
+        <v>17.52580377234932</v>
       </c>
       <c r="S7" t="n">
-        <v>6.629767796772649</v>
+        <v>6.792754919448777</v>
       </c>
       <c r="T7" t="n">
-        <v>1.625451676830018</v>
+        <v>1.665412004246701</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02075044693825558</v>
+        <v>0.02126057877761749</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31524,7 +31524,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388617</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K8" t="n">
         <v>133.3639361394712</v>
@@ -31548,7 +31548,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R8" t="n">
-        <v>65.8582970511566</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S8" t="n">
         <v>23.89104641001701</v>
@@ -31557,7 +31557,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,7 +31597,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051488</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I9" t="n">
         <v>19.31369510624622</v>
@@ -31630,7 +31630,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S9" t="n">
-        <v>10.41955398407041</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T9" t="n">
         <v>2.261055516259907</v>
@@ -31682,7 +31682,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062826</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K10" t="n">
         <v>54.63898190775737</v>
@@ -31697,13 +31697,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707451</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298936</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013719</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R10" t="n">
         <v>21.14588454739968</v>
@@ -32721,7 +32721,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N23" t="n">
-        <v>233.9753502042338</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
         <v>220.9362884380569</v>
@@ -32794,16 +32794,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L24" t="n">
-        <v>143.1166663875171</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>146.6963205296612</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>135.9039986909762</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>146.9741962396573</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32958,7 +32958,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N26" t="n">
-        <v>233.9753502042338</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
         <v>220.9362884380569</v>
@@ -33031,16 +33031,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L27" t="n">
-        <v>142.932331575087</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>146.6963205296612</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>135.9039986909762</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>147.1585310520873</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33195,7 +33195,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N29" t="n">
-        <v>233.9753502042338</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
         <v>220.9362884380569</v>
@@ -33268,16 +33268,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L30" t="n">
-        <v>142.932331575087</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>146.6963205296612</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>135.9039986909762</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>147.1585310520873</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33432,7 +33432,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N32" t="n">
-        <v>233.9753502042338</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
         <v>220.9362884380569</v>
@@ -33505,16 +33505,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L33" t="n">
-        <v>143.1166663875171</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>146.6963205296612</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>135.9039986909762</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>146.9741962396573</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33669,7 +33669,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N35" t="n">
-        <v>233.9753502042338</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
         <v>220.9362884380569</v>
@@ -33742,16 +33742,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L36" t="n">
-        <v>142.932331575087</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>146.6963205296612</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>135.9039986909762</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>147.1585310520873</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33906,7 +33906,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N38" t="n">
-        <v>233.9753502042338</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
         <v>220.9362884380569</v>
@@ -33979,16 +33979,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L39" t="n">
-        <v>143.1166663875171</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>146.6963205296612</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>135.9039986909762</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>146.9741962396573</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34143,7 +34143,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N41" t="n">
-        <v>233.9753502042338</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
         <v>220.9362884380569</v>
@@ -34216,16 +34216,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L42" t="n">
-        <v>143.1166663875171</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>146.6963205296612</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>135.9039986909762</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>146.9741962396573</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34380,7 +34380,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N44" t="n">
-        <v>233.9753502042338</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
         <v>220.9362884380569</v>
@@ -34453,16 +34453,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L45" t="n">
-        <v>142.932331575087</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>146.6963205296612</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>135.9039986909762</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>147.1585310520873</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -36360,16 +36360,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36524,16 +36524,16 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36603,16 +36603,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36761,16 +36761,16 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36843,16 +36843,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37229,19 +37229,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37311,22 +37311,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37472,16 +37472,16 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37715,10 +37715,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37788,19 +37788,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37955,7 +37955,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,22 +38022,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38189,10 +38189,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
